--- a/ocms/target/test-classes/TestData/AgentInteractionReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentInteractionReportData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D71903-2C7B-4E89-8FC1-777302D1E962}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8040" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,8 +13,10 @@
     <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
     <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="0" calcMode="manual"/>
+  <oleSize ref="A1:O24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
   <si>
     <t>Report Channel</t>
   </si>
@@ -58,12 +59,57 @@
   </si>
   <si>
     <t>OCM Agent Interaction Report</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>Is  not equal to</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts with </t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>Report Name1</t>
+  </si>
+  <si>
+    <t>Agent Interaction Report</t>
+  </si>
+  <si>
+    <t>Media Agent3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,7 +421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -425,22 +471,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A1EAB-F881-4B86-A3E3-081C46011C84}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +505,17 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -472,6 +530,93 @@
       </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -480,7 +625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE176447-87D7-4EDC-896D-9D23F07DF512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -490,7 +635,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -529,11 +674,123 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60BEED6-9E0D-4C15-B8C6-0F6124EFA13A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,9 +799,10 @@
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +818,11 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -576,6 +837,9 @@
       </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -583,23 +847,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD6B37-7362-47B2-8F62-99134BB2493A}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,10 +878,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -621,65 +904,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DA6B1-CCD8-43EF-9A87-EEA417F7CC00}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/AgentInteractionReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentInteractionReportData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD133E3-0095-4F01-8215-216C26F4B9DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8040" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,9 +15,9 @@
     <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
+    <sheet name="Queries" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" calcMode="manual"/>
-  <oleSize ref="A1:O24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
   <si>
     <t>Report Channel</t>
   </si>
@@ -104,12 +105,85 @@
   </si>
   <si>
     <t>Media Agent3</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>15-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>SELECT M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],A.[SupervisorName] as [Supervisor Name],[Channel],[Direction],[DNIS] as [Local Party],_x000D_
+[Ani] as [Remote Party],FORMAT([dbo].[VARCHARTODATETIME](M.ConnectedDateTime),'dd/MM/yyyy HH:mm:ss') as [Interaction Connected Date Time],_x000D_
+FORMAT([dbo].[VARCHARTODATETIME](M.[CreatedDateTime]),'dd/MM/yyyy HH:mm:ss') as [Created Date Time],[SessionID] as [Session ID],CONVERT(varchar, DATEADD(ms, M.QueueTime* 1000, 0), 108) as [Queue Time],_x000D_
+CONVERT(varchar, DATEADD(ms, M.ActiveTime* 1000, 0), 108) as [Active Time],_x000D_
+CONVERT(varchar, DATEADD(ms, M.HoldTime* 1000, 0), 108) as [Hold Time],_x000D_
+CONVERT(varchar, DATEADD(ms, M.ACWTime* 1000, 0), 108) as [ACW Time],_x000D_
+CONVERT(varchar, DATEADD(ms, M.HandleTime* 1000, 0), 108) as [Handle Time],_x000D_
+case when [IsConferenced]=1 Then 'true' when [IsConferenced]=0 then 'false' end as [Is Conferenced],_x000D_
+case when [IsTransfered]=1 Then 'true' when [IsTransfered]=0 then 'false' end as [Is Transfered], _x000D_
+[TPINTransferReconnected] as [TPIN Transfer Reconnected],[SubChannel] as [Sub Channel],_x000D_
+[SubSessionID] as [Sub Session ID],[InteractionID] as [Interaction ID],[Skill],[SkillName] as [Skill Name],_x000D_
+[DNISName] as [DNIS Name],[TransferedTo] as [Transfered To],[ConferencedTo] as [Conferenced To],_x000D_
+[ConferenceToAgentList] as [Conference To Agent List],[TransferToAgent] as [Transfer To Agent],_x000D_
+[TransferConferenceFromAgent] as [Transfer Conference From Agent] ,[TransferConferenceFromInteraction] as [Transfer Conference From Interaction],_x000D_
+--[OtherData],_x000D_
+FORMAT([dbo].[VARCHARTODATETIME](M.[ClosedDateTime]),'dd/MM/yyyy HH:mm:ss') as [Closed Date Time],_x000D_
+FORMAT([dbo].[VARCHARTODATETIME](M.[DisconnectedDateTime]),'dd/MM/yyyy HH:mm:ss') as [Interaction Disconnected Date Time],[ClosedReason] as [Closed Reason],_x000D_
+[CIF],[RegisteredMobileNo] as [Registered Mobile No] FROM (SELECT DISTINCT [User]  AS Ani,_x000D_
+							AgentId as AgentID,_x000D_
+							T.Channel,_x000D_
+							SubChannel,_x000D_
+							T.SessionID AS SessionID,_x000D_
+							SubSessionId as SubSessionID,_x000D_
+							InteractionId as InteractionID,_x000D_
+							T.Direction,_x000D_
+							CreatedDateTime,_x000D_
+							CreatedReason,_x000D_
+							Skill,_x000D_
+							TS.SkillName,_x000D_
+							ISNULL(A.FirstName,'') +' '+ ISNULL(A.LastName,'') AS AgentName,_x000D_
+							Dnis as DNIS,_x000D_
+							DnisName as DNISName,_x000D_
+							IsTransfered,_x000D_
+							IsConferenced,_x000D_
+							IsReconnected AS TPinTransferReconnected,_x000D_
+							IsConferencedTo AS ConferencedTo,_x000D_
+							IsTranferedTo AS TransferedTo,_x000D_
+							CASE WHEN IsTransfered=1 OR IsConferenced=1 THEN  TrasnferConferenceFromAgent ELSE '' END AS TransferConferenceFromAgent,_x000D_
+							CASE WHEN IsTransfered=1 OR IsConferenced=1 THEN  TrasnferConferenceFromInteraction ELSE '' END AS TransferConferenceFromInteraction,_x000D_
+							OtherData,_x000D_
+							ClosedDateTime AS ClosedDateTime,_x000D_
+							ClosedReason,_x000D_
+							CallConnectedTime AS  ConnectedDateTime,_x000D_
+							CallDisconnectedTime AS  DisconnectedDateTime,_x000D_
+							ActiveTime,_x000D_
+							HoldTime,_x000D_
+							TrasnferToAgent AS TransferToAgent,_x000D_
+							ConferenceToAgentList,_x000D_
+							QueueTime,_x000D_
+							AcwTime as ACWTime,_x000D_
+							ActiveTime+HoldTime+AcwTime HandleTime,_x000D_
+							IH.CIF,_x000D_
+							IH.CLID AS RegisteredMobileNo_x000D_
+							FROM TMAC_Interactions T with(nolock)_x000D_
+							INNER JOIN AGT_Agent A with(nolock) ON A.AvayaLoginID=T.AgentId _x000D_
+							LEFT JOIN AGT_Agent AA with(nolock) ON AA.AvayaLoginID = T.TrasnferConferenceFromAgent_x000D_
+							LEFT JOIN GBL_InteractionHistory IH WITH(NOLOCK) ON IH.SessionID=T.SessionId _x000D_
+							LEFT JOIN TMAC_Skills TS WITH(NOLOCK) ON TS.SkillExtension=T.Skill_x000D_
+							where 1=1 AND IH.ID IN (SELECT MIN(ID) FROM GBL_InteractionHistory WHERE SESSIONID=T.SessionId AND CLID IS NOT NULL)_x000D_
+							AND  ClosedDateTime&gt;='ReportBeforeDate' AND ClosedDateTime&lt;='ReportAfterDate') M_x000D_
+                            INNER JOIN  fn_AgentHierarchy('na','1','1') A  ON A.AgentId=M.AgentID_x000D_
+							order by M.[ClosedDateTime]</t>
+  </si>
+  <si>
+    <t>15-04-2020 15:30:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,9 +213,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,22 +499,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -471,25 +549,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -541,7 +619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -567,7 +645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -593,7 +671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -625,22 +703,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -674,23 +752,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -730,23 +808,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -786,23 +864,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -848,26 +926,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="6" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="6" width="19.81640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -923,6 +1001,69 @@
       </c>
       <c r="I2" t="s">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6D2C06-D0AE-4F83-B750-F2E25CDCB399}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/AgentInteractionReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentInteractionReportData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD133E3-0095-4F01-8215-216C26F4B9DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E1F9EE-F984-4A20-9299-0DFB23EECF29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,71 +113,73 @@
     <t>15-04-2020 00:00:00</t>
   </si>
   <si>
-    <t>SELECT M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],A.[SupervisorName] as [Supervisor Name],[Channel],[Direction],[DNIS] as [Local Party],_x000D_
-[Ani] as [Remote Party],FORMAT([dbo].[VARCHARTODATETIME](M.ConnectedDateTime),'dd/MM/yyyy HH:mm:ss') as [Interaction Connected Date Time],_x000D_
-FORMAT([dbo].[VARCHARTODATETIME](M.[CreatedDateTime]),'dd/MM/yyyy HH:mm:ss') as [Created Date Time],[SessionID] as [Session ID],CONVERT(varchar, DATEADD(ms, M.QueueTime* 1000, 0), 108) as [Queue Time],_x000D_
-CONVERT(varchar, DATEADD(ms, M.ActiveTime* 1000, 0), 108) as [Active Time],_x000D_
-CONVERT(varchar, DATEADD(ms, M.HoldTime* 1000, 0), 108) as [Hold Time],_x000D_
-CONVERT(varchar, DATEADD(ms, M.ACWTime* 1000, 0), 108) as [ACW Time],_x000D_
-CONVERT(varchar, DATEADD(ms, M.HandleTime* 1000, 0), 108) as [Handle Time],_x000D_
-case when [IsConferenced]=1 Then 'true' when [IsConferenced]=0 then 'false' end as [Is Conferenced],_x000D_
-case when [IsTransfered]=1 Then 'true' when [IsTransfered]=0 then 'false' end as [Is Transfered], _x000D_
-[TPINTransferReconnected] as [TPIN Transfer Reconnected],[SubChannel] as [Sub Channel],_x000D_
-[SubSessionID] as [Sub Session ID],[InteractionID] as [Interaction ID],[Skill],[SkillName] as [Skill Name],_x000D_
-[DNISName] as [DNIS Name],[TransferedTo] as [Transfered To],[ConferencedTo] as [Conferenced To],_x000D_
-[ConferenceToAgentList] as [Conference To Agent List],[TransferToAgent] as [Transfer To Agent],_x000D_
-[TransferConferenceFromAgent] as [Transfer Conference From Agent] ,[TransferConferenceFromInteraction] as [Transfer Conference From Interaction],_x000D_
---[OtherData],_x000D_
-FORMAT([dbo].[VARCHARTODATETIME](M.[ClosedDateTime]),'dd/MM/yyyy HH:mm:ss') as [Closed Date Time],_x000D_
-FORMAT([dbo].[VARCHARTODATETIME](M.[DisconnectedDateTime]),'dd/MM/yyyy HH:mm:ss') as [Interaction Disconnected Date Time],[ClosedReason] as [Closed Reason],_x000D_
-[CIF],[RegisteredMobileNo] as [Registered Mobile No] FROM (SELECT DISTINCT [User]  AS Ani,_x000D_
-							AgentId as AgentID,_x000D_
-							T.Channel,_x000D_
-							SubChannel,_x000D_
-							T.SessionID AS SessionID,_x000D_
-							SubSessionId as SubSessionID,_x000D_
-							InteractionId as InteractionID,_x000D_
-							T.Direction,_x000D_
-							CreatedDateTime,_x000D_
-							CreatedReason,_x000D_
-							Skill,_x000D_
-							TS.SkillName,_x000D_
-							ISNULL(A.FirstName,'') +' '+ ISNULL(A.LastName,'') AS AgentName,_x000D_
-							Dnis as DNIS,_x000D_
-							DnisName as DNISName,_x000D_
-							IsTransfered,_x000D_
-							IsConferenced,_x000D_
-							IsReconnected AS TPinTransferReconnected,_x000D_
-							IsConferencedTo AS ConferencedTo,_x000D_
-							IsTranferedTo AS TransferedTo,_x000D_
-							CASE WHEN IsTransfered=1 OR IsConferenced=1 THEN  TrasnferConferenceFromAgent ELSE '' END AS TransferConferenceFromAgent,_x000D_
-							CASE WHEN IsTransfered=1 OR IsConferenced=1 THEN  TrasnferConferenceFromInteraction ELSE '' END AS TransferConferenceFromInteraction,_x000D_
-							OtherData,_x000D_
-							ClosedDateTime AS ClosedDateTime,_x000D_
-							ClosedReason,_x000D_
-							CallConnectedTime AS  ConnectedDateTime,_x000D_
-							CallDisconnectedTime AS  DisconnectedDateTime,_x000D_
-							ActiveTime,_x000D_
-							HoldTime,_x000D_
-							TrasnferToAgent AS TransferToAgent,_x000D_
-							ConferenceToAgentList,_x000D_
-							QueueTime,_x000D_
-							AcwTime as ACWTime,_x000D_
-							ActiveTime+HoldTime+AcwTime HandleTime,_x000D_
-							IH.CIF,_x000D_
-							IH.CLID AS RegisteredMobileNo_x000D_
-							FROM TMAC_Interactions T with(nolock)_x000D_
-							INNER JOIN AGT_Agent A with(nolock) ON A.AvayaLoginID=T.AgentId _x000D_
-							LEFT JOIN AGT_Agent AA with(nolock) ON AA.AvayaLoginID = T.TrasnferConferenceFromAgent_x000D_
-							LEFT JOIN GBL_InteractionHistory IH WITH(NOLOCK) ON IH.SessionID=T.SessionId _x000D_
-							LEFT JOIN TMAC_Skills TS WITH(NOLOCK) ON TS.SkillExtension=T.Skill_x000D_
-							where 1=1 AND IH.ID IN (SELECT MIN(ID) FROM GBL_InteractionHistory WHERE SESSIONID=T.SessionId AND CLID IS NOT NULL)_x000D_
-							AND  ClosedDateTime&gt;='ReportBeforeDate' AND ClosedDateTime&lt;='ReportAfterDate') M_x000D_
-                            INNER JOIN  fn_AgentHierarchy('na','1','1') A  ON A.AgentId=M.AgentID_x000D_
+    <t>14-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>SELECT M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],A.[SupervisorName] as [Supervisor Name],[Channel],[Direction],[DNIS] as [Local Party],
+[Ani] as [Remote Party],FORMAT([dbo].[VARCHARTODATETIME](M.ConnectedDateTime),'dd/MM/yyyy HH:mm:ss') as [Interaction Connected Date Time],
+FORMAT([dbo].[VARCHARTODATETIME](M.[CreatedDateTime]),'dd/MM/yyyy HH:mm:ss') as [Created Date Time],[SessionID] as [Session ID],CONVERT(varchar, DATEADD(ms, M.QueueTime* 1000, 0), 108) as [Queue Time],
+CONVERT(varchar, DATEADD(ms, M.ActiveTime* 1000, 0), 108) as [Active Time],
+CONVERT(varchar, DATEADD(ms, M.HoldTime* 1000, 0), 108) as [Hold Time],
+CONVERT(varchar, DATEADD(ms, M.ACWTime* 1000, 0), 108) as [ACW Time],
+CONVERT(varchar, DATEADD(ms, M.HandleTime* 1000, 0), 108) as [Handle Time],
+case when [IsConferenced]=1 Then 'true' when [IsConferenced]=0 then 'false' end as [Is Conferenced],
+case when [IsTransfered]=1 Then 'true' when [IsTransfered]=0 then 'false' end as [Is Transfered], 
+[TPINTransferReconnected] as [TPIN Transfer Reconnected],[SubChannel] as [Sub Channel],
+[SubSessionID] as [Sub Session ID],[InteractionID] as [Interaction ID],[Skill],[SkillName] as [Skill Name],
+[DNISName] as [DNIS Name],[TransferedTo] as [Transfered To],[ConferencedTo] as [Conferenced To],
+[ConferenceToAgentList] as [Conference To Agent List],[TransferToAgent] as [Transfer To Agent],
+[TransferConferenceFromAgent] as [Transfer Conference From Agent] ,[TransferConferenceFromInteraction] as [Transfer Conference From Interaction],
+--[OtherData],
+FORMAT([dbo].[VARCHARTODATETIME](M.[ClosedDateTime]),'dd/MM/yyyy HH:mm:ss') as [Closed Date Time],
+FORMAT([dbo].[VARCHARTODATETIME](M.[DisconnectedDateTime]),'dd/MM/yyyy HH:mm:ss') as [Interaction Disconnected Date Time],[ClosedReason] as [Closed Reason]
+--[CIF],[RegisteredMobileNo] as [Registered Mobile No] 
+FROM 
+(SELECT DISTINCT [User]  AS Ani,
+							AgentId as AgentID,
+							T.Channel,
+							SubChannel,
+							T.SessionID AS SessionID,
+							SubSessionId as SubSessionID,
+							InteractionId as InteractionID,
+							T.Direction,
+							CreatedDateTime,
+							CreatedReason,
+							Skill,
+							TS.SkillName,
+							ISNULL(A.FirstName,'') +' '+ ISNULL(A.LastName,'') AS AgentName,
+							Dnis as DNIS,
+							DnisName as DNISName,
+							IsTransfered,
+							IsConferenced,
+							IsReconnected AS TPinTransferReconnected,
+							IsConferencedTo AS ConferencedTo,
+							IsTranferedTo AS TransferedTo,
+							CASE WHEN IsTransfered=1 OR IsConferenced=1 THEN  TrasnferConferenceFromAgent ELSE '' END AS TransferConferenceFromAgent,
+							CASE WHEN IsTransfered=1 OR IsConferenced=1 THEN  TrasnferConferenceFromInteraction ELSE '' END AS TransferConferenceFromInteraction,
+							OtherData,
+							ClosedDateTime AS ClosedDateTime,
+							ClosedReason,
+							CallConnectedTime AS  ConnectedDateTime,
+							CallDisconnectedTime AS  DisconnectedDateTime,
+							ActiveTime,
+							HoldTime,
+							TrasnferToAgent AS TransferToAgent,
+							ConferenceToAgentList,
+							QueueTime,
+							AcwTime as ACWTime,
+							ActiveTime+HoldTime+AcwTime HandleTime,
+							IH.CIF,
+							IH.CLID AS RegisteredMobileNo
+							FROM TMAC_Interactions T with(nolock)
+							INNER JOIN AGT_Agent A with(nolock) ON A.AvayaLoginID=T.AgentId 
+							LEFT JOIN AGT_Agent AA with(nolock) ON AA.AvayaLoginID = T.TrasnferConferenceFromAgent
+							LEFT JOIN GBL_InteractionHistory IH WITH(NOLOCK) ON IH.SessionID=T.SessionId 
+							LEFT JOIN TMAC_Skills TS WITH(NOLOCK) ON TS.SkillExtension=T.Skill
+							where 1=1 AND IH.ID IN (SELECT MIN(ID) FROM GBL_InteractionHistory WHERE SESSIONID=T.SessionId AND CLID IS NOT NULL)
+							AND  ClosedDateTime&gt;='20200414000000' AND ClosedDateTime&lt;='20200415000000') M
+                            INNER JOIN  fn_AgentHierarchy('na','1','1') A  ON A.AgentId=M.AgentID
 							order by M.[ClosedDateTime]</t>
-  </si>
-  <si>
-    <t>15-04-2020 15:30:00</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1015,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,13 +1059,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/AgentInteractionReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentInteractionReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8040" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18045" windowHeight="8040" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,8 @@
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual"/>
-  <oleSize ref="A1:O24"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="B1:I24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="31">
   <si>
     <t>Report Channel</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>Date Range</t>
   </si>
   <si>
@@ -91,19 +88,37 @@
     <t xml:space="preserve">Starts with </t>
   </si>
   <si>
-    <t>agent</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
     <t>Report Name1</t>
   </si>
   <si>
     <t>Agent Interaction Report</t>
   </si>
   <si>
-    <t>Media Agent3</t>
+    <t>17-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>18-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>X Y</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ends with </t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -139,9 +154,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +449,7 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,16 +468,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -472,10 +488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,125 +516,178 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -629,7 +698,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,16 +725,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +747,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,8 +755,8 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -701,27 +770,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +803,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,24 +829,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +859,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,33 +882,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -851,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,51 +947,51 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/AgentInteractionReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentInteractionReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18045" windowHeight="8040" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18030" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="B1:I24"/>
+  <oleSize ref="A1:K24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -490,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -920,7 +920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/AgentInteractionReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentInteractionReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18030" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="8040" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="45">
   <si>
     <t>Report Channel</t>
   </si>
@@ -119,6 +118,48 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>Supervisor Name</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Kanchan</t>
   </si>
 </sst>
 </file>
@@ -488,10 +529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -687,7 +728,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -858,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,10 +958,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,10 +973,12 @@
     <col min="5" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,8 +1006,14 @@
       <c r="I1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,6 +1040,160 @@
       </c>
       <c r="I2" t="s">
         <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/AgentInteractionReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentInteractionReportData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="8040" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -259,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -294,7 +295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -471,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -481,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -898,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
